--- a/docs/personal/charger.xlsx
+++ b/docs/personal/charger.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">rpi4</t>
   </si>
@@ -40,10 +40,7 @@
     <t xml:space="preserve">5*1 or 5*2.4</t>
   </si>
   <si>
-    <t xml:space="preserve">wireless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trackpad</t>
+    <t xml:space="preserve">wireless/tracpad</t>
   </si>
   <si>
     <t xml:space="preserve">laptop</t>
@@ -97,7 +94,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +105,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
@@ -145,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,6 +158,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,7 +249,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,57 +290,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
